--- a/data/map_data.xlsx
+++ b/data/map_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="map_data_backup.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,977 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Adams, James</t>
+  </si>
+  <si>
+    <t>564 S State St</t>
+  </si>
+  <si>
+    <t>Provo</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Adams, Lola</t>
+  </si>
+  <si>
+    <t>760 E 500 S</t>
+  </si>
+  <si>
+    <t>Allen, Drake &amp; Kaylee Arlene</t>
+  </si>
+  <si>
+    <t>441 S 500 E</t>
+  </si>
+  <si>
+    <t>Allison, Miles</t>
+  </si>
+  <si>
+    <t>536 E 300 S</t>
+  </si>
+  <si>
+    <t>Amatangelo, Ellen</t>
+  </si>
+  <si>
+    <t>548 E 300 S</t>
+  </si>
+  <si>
+    <t>Ames, George Speed</t>
+  </si>
+  <si>
+    <t>684 E 400 S</t>
+  </si>
+  <si>
+    <t>Anderson, Bryan Christopher &amp; Erika Morgan</t>
+  </si>
+  <si>
+    <t>439 S 500 E</t>
+  </si>
+  <si>
+    <t>Anderson, Michael &amp; Michelle Rae</t>
+  </si>
+  <si>
+    <t>461 S 500 E</t>
+  </si>
+  <si>
+    <t>Aparicio, Daniel</t>
+  </si>
+  <si>
+    <t>461 S 600 E</t>
+  </si>
+  <si>
+    <t>Archibald, Matthew &amp; Emma Fern</t>
+  </si>
+  <si>
+    <t>647 E 400 S</t>
+  </si>
+  <si>
+    <t>Armstrong, Jaime &amp; Elizabeth Anne</t>
+  </si>
+  <si>
+    <t>376 N 500 E</t>
+  </si>
+  <si>
+    <t>Arrowsmith, Linda</t>
+  </si>
+  <si>
+    <t>695 E 600 S Apt 4</t>
+  </si>
+  <si>
+    <t>Beckstead, Chase &amp; Cheyenne</t>
+  </si>
+  <si>
+    <t>701 E 400 S</t>
+  </si>
+  <si>
+    <t>Bench, Ryan Gerald &amp; Kesley Alexia</t>
+  </si>
+  <si>
+    <t>677 E 400 S</t>
+  </si>
+  <si>
+    <t>Bitsinnie, Chaz</t>
+  </si>
+  <si>
+    <t>725 E 600 S</t>
+  </si>
+  <si>
+    <t>Blakemore, Matthew &amp; Mallory</t>
+  </si>
+  <si>
+    <t>492 S 450 E</t>
+  </si>
+  <si>
+    <t>Bloxham, Joey &amp; Haylee Kathryn</t>
+  </si>
+  <si>
+    <t>351 S 400 E</t>
+  </si>
+  <si>
+    <t>Blue, Rusty Roy &amp; Holly</t>
+  </si>
+  <si>
+    <t>662 E 400 S</t>
+  </si>
+  <si>
+    <t>Boice, Benjamin</t>
+  </si>
+  <si>
+    <t>340 S State St</t>
+  </si>
+  <si>
+    <t>Boice, William</t>
+  </si>
+  <si>
+    <t>Bonner, Travis &amp; Lisa Deus</t>
+  </si>
+  <si>
+    <t>488 S 500 E</t>
+  </si>
+  <si>
+    <t>Brian, Finn &amp; Ellyssa Taylor</t>
+  </si>
+  <si>
+    <t>Brown, Ed &amp; Brenda</t>
+  </si>
+  <si>
+    <t>608 E 500 S</t>
+  </si>
+  <si>
+    <t>Bullock Brown, Lois</t>
+  </si>
+  <si>
+    <t>626 E 500 S</t>
+  </si>
+  <si>
+    <t>Buttrill, Lee Trice</t>
+  </si>
+  <si>
+    <t>356 E 500 S</t>
+  </si>
+  <si>
+    <t>Caligiuri, James Joseph</t>
+  </si>
+  <si>
+    <t>610 E 600 N #A107C</t>
+  </si>
+  <si>
+    <t>Campbell, Janet</t>
+  </si>
+  <si>
+    <t>650 E 500 S Apt 6</t>
+  </si>
+  <si>
+    <t>Cantu, Samantha Grace</t>
+  </si>
+  <si>
+    <t>355 S 400 E</t>
+  </si>
+  <si>
+    <t>Carter, Hilary</t>
+  </si>
+  <si>
+    <t>670 E 500 S</t>
+  </si>
+  <si>
+    <t>Castaneda, Cynthia Ann</t>
+  </si>
+  <si>
+    <t>455 E 400 S</t>
+  </si>
+  <si>
+    <t>Chadwick, Spencer &amp; Cassidy</t>
+  </si>
+  <si>
+    <t>633 E 500 S</t>
+  </si>
+  <si>
+    <t>Chapman, Michael &amp; Crystal Jean</t>
+  </si>
+  <si>
+    <t>358 S 600 E</t>
+  </si>
+  <si>
+    <t>Chapman, Patrick</t>
+  </si>
+  <si>
+    <t>Cheney, Matthew &amp; Skylie Joy</t>
+  </si>
+  <si>
+    <t>483 S 400 E</t>
+  </si>
+  <si>
+    <t>Christensen, Nathan &amp; Kindra</t>
+  </si>
+  <si>
+    <t>420 E 400 S</t>
+  </si>
+  <si>
+    <t>Clare, Jordan &amp; Maddison Joy</t>
+  </si>
+  <si>
+    <t>473 S 450 E</t>
+  </si>
+  <si>
+    <t>Cole, Craig &amp; Lisa</t>
+  </si>
+  <si>
+    <t>477 S 600 E</t>
+  </si>
+  <si>
+    <t>Collins, Dayde &amp; Karly Alissa</t>
+  </si>
+  <si>
+    <t>482 S 500 E</t>
+  </si>
+  <si>
+    <t>Daley, Angela</t>
+  </si>
+  <si>
+    <t>704 E 400 S</t>
+  </si>
+  <si>
+    <t>Damron, Ethan &amp; Kendra</t>
+  </si>
+  <si>
+    <t>493 S 450 E</t>
+  </si>
+  <si>
+    <t>Danielson, Logo</t>
+  </si>
+  <si>
+    <t>558 E 300 S</t>
+  </si>
+  <si>
+    <t>Danner, Anne Marie</t>
+  </si>
+  <si>
+    <t>734 E 400 S</t>
+  </si>
+  <si>
+    <t>Danner, Donald &amp; Christy</t>
+  </si>
+  <si>
+    <t>Darcey, Ian &amp; Jackie Colleen</t>
+  </si>
+  <si>
+    <t>486 S 600 E</t>
+  </si>
+  <si>
+    <t>Davis, Mikkel &amp; Larissa</t>
+  </si>
+  <si>
+    <t>435 S 500 E</t>
+  </si>
+  <si>
+    <t>Day, Braiden &amp; Kylie Debra</t>
+  </si>
+  <si>
+    <t>408 S 500 E</t>
+  </si>
+  <si>
+    <t>DeLange, Michael &amp; Tiffene</t>
+  </si>
+  <si>
+    <t>708 E 400 S</t>
+  </si>
+  <si>
+    <t>Dobbins, Isaac Kanekoa &amp; Brenna Kate</t>
+  </si>
+  <si>
+    <t>489 S 500 E</t>
+  </si>
+  <si>
+    <t>Drake, Shawn</t>
+  </si>
+  <si>
+    <t>465 S 400 E</t>
+  </si>
+  <si>
+    <t>Draper, Jason &amp; Selah Mickell</t>
+  </si>
+  <si>
+    <t>444 S 500 E</t>
+  </si>
+  <si>
+    <t>Drean, Patrik &amp; Rachel Rose</t>
+  </si>
+  <si>
+    <t>635 E 500 S</t>
+  </si>
+  <si>
+    <t>Dye, Barbara</t>
+  </si>
+  <si>
+    <t>515 S 700 E</t>
+  </si>
+  <si>
+    <t>Eldredge, BJ &amp; Kendra Anne</t>
+  </si>
+  <si>
+    <t>685 E 400 S</t>
+  </si>
+  <si>
+    <t>Farah, Joshua &amp; Morgan Paige</t>
+  </si>
+  <si>
+    <t>519 S 500 E Apt 3</t>
+  </si>
+  <si>
+    <t>Farley, Heather</t>
+  </si>
+  <si>
+    <t>524 E 400 S</t>
+  </si>
+  <si>
+    <t>Ferre, Sue</t>
+  </si>
+  <si>
+    <t>418 S State St</t>
+  </si>
+  <si>
+    <t>Ferris, Renny &amp; Esther</t>
+  </si>
+  <si>
+    <t>443 E 400 S</t>
+  </si>
+  <si>
+    <t>Frei, Celestia</t>
+  </si>
+  <si>
+    <t>470 E 300 S</t>
+  </si>
+  <si>
+    <t>Frei, Sarah</t>
+  </si>
+  <si>
+    <t>Gamboa, Maritza</t>
+  </si>
+  <si>
+    <t>374 S 500 E</t>
+  </si>
+  <si>
+    <t>George, Gretchen Ann</t>
+  </si>
+  <si>
+    <t>381 S 400 E</t>
+  </si>
+  <si>
+    <t>Gibson, Jordan &amp; Kate</t>
+  </si>
+  <si>
+    <t>469 S 600 E</t>
+  </si>
+  <si>
+    <t>Gonzalez, Chris &amp; Deseret</t>
+  </si>
+  <si>
+    <t>449 S 500 E</t>
+  </si>
+  <si>
+    <t>Gunther, Benson Ryan &amp; Jade Cyrel</t>
+  </si>
+  <si>
+    <t>472 S 450 E</t>
+  </si>
+  <si>
+    <t>Gutiérrez, Aurelio &amp; Paula</t>
+  </si>
+  <si>
+    <t>650 E 500 S Apt 3</t>
+  </si>
+  <si>
+    <t>Hackett, Royce &amp; Harly Jane</t>
+  </si>
+  <si>
+    <t>337 S 500 E</t>
+  </si>
+  <si>
+    <t>Hadley, Garrett &amp; Samantha Charlene</t>
+  </si>
+  <si>
+    <t>490 S 450 E</t>
+  </si>
+  <si>
+    <t>Hales, Alexis</t>
+  </si>
+  <si>
+    <t>699 E 500 S</t>
+  </si>
+  <si>
+    <t>Hales, Joseph Blakely &amp; Taylor Suzanne</t>
+  </si>
+  <si>
+    <t>357 S 400 E</t>
+  </si>
+  <si>
+    <t>Hamnett, Drew Merlyn &amp; Allison Kristine</t>
+  </si>
+  <si>
+    <t>450 E 300 S</t>
+  </si>
+  <si>
+    <t>Handy, Jeffrey &amp; Megan Elise</t>
+  </si>
+  <si>
+    <t>428 E 500 S</t>
+  </si>
+  <si>
+    <t>Hansen, Jared &amp; Allison</t>
+  </si>
+  <si>
+    <t>487 S 400 E</t>
+  </si>
+  <si>
+    <t>Hardy, Robert &amp; Christine</t>
+  </si>
+  <si>
+    <t>558 S State St</t>
+  </si>
+  <si>
+    <t>Harris, Patrick Duane &amp; Ashlyn Brooke</t>
+  </si>
+  <si>
+    <t>471 S 450 E</t>
+  </si>
+  <si>
+    <t>Harrison, Jeff Allen &amp; Mary Kathleen</t>
+  </si>
+  <si>
+    <t>472 E 500 S</t>
+  </si>
+  <si>
+    <t>Hatch, Jonathan &amp; Emily</t>
+  </si>
+  <si>
+    <t>478 S 450 E</t>
+  </si>
+  <si>
+    <t>Haug, Todd &amp; McKenna</t>
+  </si>
+  <si>
+    <t>467 S 400 E</t>
+  </si>
+  <si>
+    <t>Heeb, Jordan &amp; Madeline Rae</t>
+  </si>
+  <si>
+    <t>436 S 500 E</t>
+  </si>
+  <si>
+    <t>Hernandez, Emiliano &amp; Audrey Brooke</t>
+  </si>
+  <si>
+    <t>470 E 400 S</t>
+  </si>
+  <si>
+    <t>Higley, Ty &amp; Audrey Michelle</t>
+  </si>
+  <si>
+    <t>482 S 450 E</t>
+  </si>
+  <si>
+    <t>Hoover, Kyle Richard &amp; Madison Mallory</t>
+  </si>
+  <si>
+    <t>487 S 450 E</t>
+  </si>
+  <si>
+    <t>Horton, Brooke Shay</t>
+  </si>
+  <si>
+    <t>695 E 600 S Apt 3</t>
+  </si>
+  <si>
+    <t>Hosler, Ty &amp; Sydney</t>
+  </si>
+  <si>
+    <t>486 S 500 E</t>
+  </si>
+  <si>
+    <t>Howe, Micah &amp; Katie Faye</t>
+  </si>
+  <si>
+    <t>459 S 500 E</t>
+  </si>
+  <si>
+    <t>Hughes, Timothy James &amp; Stephanie Catherine</t>
+  </si>
+  <si>
+    <t>655 E 600 S Apt 2</t>
+  </si>
+  <si>
+    <t>Igwe, Invictus &amp; Kari Johanna</t>
+  </si>
+  <si>
+    <t>456 E 400 S</t>
+  </si>
+  <si>
+    <t>Jackson, Brandon &amp; Laurell</t>
+  </si>
+  <si>
+    <t>572 E 300 S</t>
+  </si>
+  <si>
+    <t>Jackson, Jake &amp; Mary Elizabeth</t>
+  </si>
+  <si>
+    <t>689 E 400 S</t>
+  </si>
+  <si>
+    <t>Jensen, Evan &amp; Kristen</t>
+  </si>
+  <si>
+    <t>430 S 500 E</t>
+  </si>
+  <si>
+    <t>Jensen, Jim &amp; Renee</t>
+  </si>
+  <si>
+    <t>343 S 400 E</t>
+  </si>
+  <si>
+    <t>Jensen, Stacey</t>
+  </si>
+  <si>
+    <t>552 E 300 S</t>
+  </si>
+  <si>
+    <t>Johnson, Thomas</t>
+  </si>
+  <si>
+    <t>Judd, Steven Paul</t>
+  </si>
+  <si>
+    <t>535 E 400 S</t>
+  </si>
+  <si>
+    <t>Knibbs, Carol</t>
+  </si>
+  <si>
+    <t>453 E 400 S</t>
+  </si>
+  <si>
+    <t>Lamplugh, Weston &amp; Catherine Renee</t>
+  </si>
+  <si>
+    <t>581 E 500 S</t>
+  </si>
+  <si>
+    <t>Lansana, Aminata</t>
+  </si>
+  <si>
+    <t>480 S 450 E</t>
+  </si>
+  <si>
+    <t>Larsen, Kimball &amp; Whitney</t>
+  </si>
+  <si>
+    <t>456 S 600 E</t>
+  </si>
+  <si>
+    <t>Provo UT</t>
+  </si>
+  <si>
+    <t>Law, Cayden &amp; Savannah</t>
+  </si>
+  <si>
+    <t>464 S 500 E</t>
+  </si>
+  <si>
+    <t>Leifson, Eileen</t>
+  </si>
+  <si>
+    <t>315 S 400 E</t>
+  </si>
+  <si>
+    <t>Lindsay, Katherine Renee</t>
+  </si>
+  <si>
+    <t>665 E 600 S Apt 2</t>
+  </si>
+  <si>
+    <t>Littlefield, Connor &amp; Megan Michele</t>
+  </si>
+  <si>
+    <t>447 S 500 E</t>
+  </si>
+  <si>
+    <t>Loader, Billie Jean Mc Cormick</t>
+  </si>
+  <si>
+    <t>433 E 400 S</t>
+  </si>
+  <si>
+    <t>Lunceford, Jeslie</t>
+  </si>
+  <si>
+    <t>796 E 500 S Apt 301</t>
+  </si>
+  <si>
+    <t>Manitoken, Colin &amp; Maria</t>
+  </si>
+  <si>
+    <t>466 E 400 S</t>
+  </si>
+  <si>
+    <t>Martinez Ramirez, Luis Eduardo</t>
+  </si>
+  <si>
+    <t>Mecham, Nathan &amp; Hanna</t>
+  </si>
+  <si>
+    <t>485 S 400 E</t>
+  </si>
+  <si>
+    <t>Moll, Patrick &amp; Rebecca</t>
+  </si>
+  <si>
+    <t>604 E 400 S</t>
+  </si>
+  <si>
+    <t>Moore, Joseph &amp; Erin</t>
+  </si>
+  <si>
+    <t>344 S 500 E</t>
+  </si>
+  <si>
+    <t>Moss, Aaron &amp; Elizabeth</t>
+  </si>
+  <si>
+    <t>339 S 500 E</t>
+  </si>
+  <si>
+    <t>Navejar, Spencer Joseph</t>
+  </si>
+  <si>
+    <t>671 E 500 S</t>
+  </si>
+  <si>
+    <t>Nelson, Michael</t>
+  </si>
+  <si>
+    <t>484 E 300 S</t>
+  </si>
+  <si>
+    <t>Newsome, Trevor</t>
+  </si>
+  <si>
+    <t>557 E 400 S</t>
+  </si>
+  <si>
+    <t>Nielsen, Kyle Page &amp; Tess</t>
+  </si>
+  <si>
+    <t>754 E 500 S</t>
+  </si>
+  <si>
+    <t>Norton, Charles</t>
+  </si>
+  <si>
+    <t>442 S State St</t>
+  </si>
+  <si>
+    <t>Nufer, Jonathon &amp; Teresa Marie</t>
+  </si>
+  <si>
+    <t>489 S 400 E</t>
+  </si>
+  <si>
+    <t>Oliphant, Russell &amp; Emily Nicole</t>
+  </si>
+  <si>
+    <t>590 E 400 S</t>
+  </si>
+  <si>
+    <t>Olsen, Megan Louise</t>
+  </si>
+  <si>
+    <t>650 E 500 S Apt 2</t>
+  </si>
+  <si>
+    <t>Oteo, Melquisedec &amp; Yvonne</t>
+  </si>
+  <si>
+    <t>673 E 500 S</t>
+  </si>
+  <si>
+    <t>Pace, Twila Lee</t>
+  </si>
+  <si>
+    <t>648 E 400 S</t>
+  </si>
+  <si>
+    <t>Paxton, Tate &amp; McKenzie Lynn</t>
+  </si>
+  <si>
+    <t>317 S 400 E</t>
+  </si>
+  <si>
+    <t>Pearson, Aaron &amp; Stephanie</t>
+  </si>
+  <si>
+    <t>464 S 600 E</t>
+  </si>
+  <si>
+    <t>Perez Medina, Jesus &amp; Ma Guadalupe de</t>
+  </si>
+  <si>
+    <t>576 E 400 S</t>
+  </si>
+  <si>
+    <t>Peterson, Quinn &amp; Katrina Marie</t>
+  </si>
+  <si>
+    <t>420 E 300 S</t>
+  </si>
+  <si>
+    <t>Poppleton, Robert</t>
+  </si>
+  <si>
+    <t>346 S 600 E</t>
+  </si>
+  <si>
+    <t>Purser, Clinton &amp; Olivia Page</t>
+  </si>
+  <si>
+    <t>744 E 500 S</t>
+  </si>
+  <si>
+    <t>Rasmussen, Tad &amp; Martha</t>
+  </si>
+  <si>
+    <t>701 E 500 S</t>
+  </si>
+  <si>
+    <t>Rathbun, Nathan</t>
+  </si>
+  <si>
+    <t>647 E 500 S</t>
+  </si>
+  <si>
+    <t>Reed, Stephen &amp; Annelise Woodward</t>
+  </si>
+  <si>
+    <t>369 S 500 E</t>
+  </si>
+  <si>
+    <t>Richards, Lavon</t>
+  </si>
+  <si>
+    <t>571 E 500 S</t>
+  </si>
+  <si>
+    <t>Richardson, Nick Steven &amp; Stacy Gene</t>
+  </si>
+  <si>
+    <t>675 E 600 S Apt 1</t>
+  </si>
+  <si>
+    <t>Richey, Nathan &amp; Sarah Marie</t>
+  </si>
+  <si>
+    <t>Rodriguez, Jazmin</t>
+  </si>
+  <si>
+    <t>655 E 600 S Apt 3</t>
+  </si>
+  <si>
+    <t>Rood, Jenny</t>
+  </si>
+  <si>
+    <t>727 E 400 S</t>
+  </si>
+  <si>
+    <t>Roth, Jasmine &amp; Kade</t>
+  </si>
+  <si>
+    <t>467 S 500 E</t>
+  </si>
+  <si>
+    <t>Rushton, Eric &amp; Brianne</t>
+  </si>
+  <si>
+    <t>414 E 500 S</t>
+  </si>
+  <si>
+    <t>Sanabria, Lucy</t>
+  </si>
+  <si>
+    <t>322 S 600 E</t>
+  </si>
+  <si>
+    <t>Schenck, Trent</t>
+  </si>
+  <si>
+    <t>Scofield, Jeffrey David &amp; Marí Angeles</t>
+  </si>
+  <si>
+    <t>333 S 400 E</t>
+  </si>
+  <si>
+    <t>Sevy, Albert Cameron &amp; Sharon Myler</t>
+  </si>
+  <si>
+    <t>Shannon, Avram Richard &amp; Thora Florence</t>
+  </si>
+  <si>
+    <t>391 S 400 E</t>
+  </si>
+  <si>
+    <t>Sharkey, Becky</t>
+  </si>
+  <si>
+    <t>389 S 500 E</t>
+  </si>
+  <si>
+    <t>Shiffler-Olsen, Bonnie Ruth</t>
+  </si>
+  <si>
+    <t>695 E 600 S Apt 1</t>
+  </si>
+  <si>
+    <t>Smith, Spencer &amp; Emma Lee</t>
+  </si>
+  <si>
+    <t>408 E 500 S</t>
+  </si>
+  <si>
+    <t>Stallings, Jonathan &amp; Natalie</t>
+  </si>
+  <si>
+    <t>422 E 300 S</t>
+  </si>
+  <si>
+    <t>Stewart, Misti Fawn</t>
+  </si>
+  <si>
+    <t>494 S 450 E</t>
+  </si>
+  <si>
+    <t>Stillwell, Kenneth Holliway &amp; Jami Nicole</t>
+  </si>
+  <si>
+    <t>475 E 400 S</t>
+  </si>
+  <si>
+    <t>Storrs, Colton &amp; Kyla Amber</t>
+  </si>
+  <si>
+    <t>354 S 500 E</t>
+  </si>
+  <si>
+    <t>Van Katwyk, Nathan Kirk &amp; Emily Ann</t>
+  </si>
+  <si>
+    <t>404 E 500 S</t>
+  </si>
+  <si>
+    <t>Voyles, Jacob &amp; Rachel Myrna</t>
+  </si>
+  <si>
+    <t>434 E 500 S</t>
+  </si>
+  <si>
+    <t>Walker, Steven &amp; Alyssa Jane</t>
+  </si>
+  <si>
+    <t>647 E 400 S Unit A</t>
+  </si>
+  <si>
+    <t>Wall, Cody Lane</t>
+  </si>
+  <si>
+    <t>562 East 400 South</t>
+  </si>
+  <si>
+    <t>Ward, Jordan &amp; Shelby</t>
+  </si>
+  <si>
+    <t>484 S 450 E</t>
+  </si>
+  <si>
+    <t>Washburn, Joseph Mc Kay</t>
+  </si>
+  <si>
+    <t>448 E 500 S</t>
+  </si>
+  <si>
+    <t>Whitney, Keaton &amp; Sadie Rose</t>
+  </si>
+  <si>
+    <t>585 E 400 S</t>
+  </si>
+  <si>
+    <t>Wiggins, Kyle</t>
+  </si>
+  <si>
+    <t>675 E 600 S Apt 3</t>
+  </si>
+  <si>
+    <t>Wilcox, Connor Berrett &amp; Anne Marie</t>
+  </si>
+  <si>
+    <t>425 S 500 E</t>
+  </si>
+  <si>
+    <t>Williams, Taylor &amp; Alyssa</t>
+  </si>
+  <si>
+    <t>466 S 500 E</t>
+  </si>
+  <si>
+    <t>Worden, Nate &amp; Kaylee Marie</t>
+  </si>
+  <si>
+    <t>Wyckoff, Chandler &amp; Holly Marie</t>
+  </si>
+  <si>
+    <t>356 S 500 E</t>
+  </si>
+  <si>
+    <t>Zamudio Zarraga, Isaac &amp; Kristen Alcira</t>
+  </si>
+  <si>
+    <t>533 E 400 S</t>
+  </si>
+  <si>
+    <t>Zavala Morales, Zoram &amp; Katherine Louise</t>
+  </si>
+  <si>
+    <t>462 S 500 E</t>
+  </si>
+  <si>
+    <t>Zolman, Conrad Hibner &amp; Jazmine Morse</t>
+  </si>
+  <si>
+    <t>325 S 500 E</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,6 +1325,3267 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" t="s">
+        <v>260</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>261</v>
+      </c>
+      <c r="B131" t="s">
+        <v>262</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>240</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" t="s">
+        <v>114</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" t="s">
+        <v>295</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" t="s">
+        <v>297</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" t="s">
+        <v>299</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" t="s">
+        <v>307</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" t="s">
+        <v>311</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" t="s">
+        <v>313</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" t="s">
+        <v>94</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" t="s">
+        <v>318</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" t="s">
+        <v>322</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" t="n">
+        <v>84606</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/data/map_data.xlsx
+++ b/data/map_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
   <si>
     <t>Name</t>
   </si>
@@ -26,9 +26,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
   </si>
   <si>
     <t>Provo</t>
-  </si>
-  <si>
-    <t>UT</t>
   </si>
   <si>
     <t>United States</t>
@@ -1342,3247 +1336,2758 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="n">
+        <v>8</v>
+      </c>
+      <c r="E53" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E60" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="E64" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="E67" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="E68" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="E70" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="E71" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="n">
+        <v>8</v>
+      </c>
+      <c r="E74" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="n">
+        <v>8</v>
+      </c>
+      <c r="E75" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="n">
+        <v>8</v>
+      </c>
+      <c r="E76" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="n">
+        <v>8</v>
+      </c>
+      <c r="E79" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="n">
+        <v>8</v>
+      </c>
+      <c r="E81" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="n">
+        <v>8</v>
+      </c>
+      <c r="E83" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="n">
+        <v>8</v>
+      </c>
+      <c r="E84" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="n">
+        <v>8</v>
+      </c>
+      <c r="E85" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="n">
+        <v>8</v>
+      </c>
+      <c r="E86" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" t="n">
+        <v>8</v>
+      </c>
+      <c r="E87" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="n">
+        <v>8</v>
+      </c>
+      <c r="E89" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" t="s">
         <v>195</v>
       </c>
-      <c r="B98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" t="s">
-        <v>197</v>
-      </c>
       <c r="D98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="n">
+        <v>8</v>
+      </c>
+      <c r="E101" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="n">
+        <v>8</v>
+      </c>
+      <c r="E102" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" t="n">
+        <v>8</v>
+      </c>
+      <c r="E103" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" t="n">
+        <v>8</v>
+      </c>
+      <c r="E104" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="n">
+        <v>8</v>
+      </c>
+      <c r="E105" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="n">
+        <v>8</v>
+      </c>
+      <c r="E106" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="n">
+        <v>8</v>
+      </c>
+      <c r="E107" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="n">
+        <v>8</v>
+      </c>
+      <c r="E108" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="n">
+        <v>8</v>
+      </c>
+      <c r="E110" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" t="n">
+        <v>8</v>
+      </c>
+      <c r="E111" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="n">
+        <v>8</v>
+      </c>
+      <c r="E112" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" t="n">
+        <v>8</v>
+      </c>
+      <c r="E113" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="E114" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" t="n">
+        <v>8</v>
+      </c>
+      <c r="E115" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" t="n">
+        <v>8</v>
+      </c>
+      <c r="E116" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" t="n">
+        <v>8</v>
+      </c>
+      <c r="E117" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="n">
+        <v>8</v>
+      </c>
+      <c r="E118" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="n">
+        <v>8</v>
+      </c>
+      <c r="E120" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="n">
+        <v>8</v>
+      </c>
+      <c r="E121" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="n">
+        <v>8</v>
+      </c>
+      <c r="E122" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="n">
+        <v>8</v>
+      </c>
+      <c r="E124" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="n">
+        <v>8</v>
+      </c>
+      <c r="E125" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="n">
+        <v>8</v>
+      </c>
+      <c r="E126" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" t="n">
+        <v>8</v>
+      </c>
+      <c r="E127" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="n">
+        <v>8</v>
+      </c>
+      <c r="E128" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="n">
+        <v>8</v>
+      </c>
+      <c r="E130" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" t="n">
+        <v>8</v>
+      </c>
+      <c r="E131" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B132" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="n">
+        <v>8</v>
+      </c>
+      <c r="E132" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" t="n">
+        <v>8</v>
+      </c>
+      <c r="E133" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="n">
+        <v>8</v>
+      </c>
+      <c r="E135" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="n">
+        <v>8</v>
+      </c>
+      <c r="E136" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B138" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="n">
+        <v>8</v>
+      </c>
+      <c r="E138" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" t="n">
+        <v>8</v>
+      </c>
+      <c r="E139" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" t="n">
+        <v>8</v>
+      </c>
+      <c r="E140" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="n">
+        <v>8</v>
+      </c>
+      <c r="E142" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" t="n">
+        <v>8</v>
+      </c>
+      <c r="E143" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="n">
+        <v>8</v>
+      </c>
+      <c r="E144" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" t="n">
+        <v>8</v>
+      </c>
+      <c r="E145" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="n">
+        <v>8</v>
+      </c>
+      <c r="E146" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" t="n">
+        <v>8</v>
+      </c>
+      <c r="E147" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" t="n">
+        <v>8</v>
+      </c>
+      <c r="E148" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" t="n">
+        <v>8</v>
+      </c>
+      <c r="E149" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" t="n">
+        <v>8</v>
+      </c>
+      <c r="E150" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" t="n">
+        <v>8</v>
+      </c>
+      <c r="E151" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" t="n">
+        <v>8</v>
+      </c>
+      <c r="E152" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" t="n">
+        <v>8</v>
+      </c>
+      <c r="E153" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="n">
+        <v>8</v>
+      </c>
+      <c r="E154" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" t="n">
+        <v>8</v>
+      </c>
+      <c r="E155" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="n">
+        <v>8</v>
+      </c>
+      <c r="E156" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" t="n">
+        <v>8</v>
+      </c>
+      <c r="E157" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" t="n">
+        <v>8</v>
+      </c>
+      <c r="E158" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" t="n">
+        <v>8</v>
+      </c>
+      <c r="E159" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" t="n">
+        <v>8</v>
+      </c>
+      <c r="E160" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" t="n">
+        <v>8</v>
+      </c>
+      <c r="E161" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" t="n">
+        <v>8</v>
+      </c>
+      <c r="E162" t="n">
         <v>84606</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" t="n">
+        <v>8</v>
+      </c>
+      <c r="E163" t="n">
         <v>84606</v>
       </c>
     </row>

--- a/data/map_data.xlsx
+++ b/data/map_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikdrean/Documents/python_projects/map_z_scraper/map_z_scraper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BF1DC8-B9EC-4647-8BD6-4D0CDD0AE76F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E673DA-F835-F246-B3B8-BDDE76FA665E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24700" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24680" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map_data_backup.csv" sheetId="1" r:id="rId1"/>
@@ -1001,16 +1001,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1037,9 +1030,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:G164"/>
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4616,9 +4608,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="C166" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/map_data.xlsx
+++ b/data/map_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>Location Code</t>
   </si>
@@ -173,9 +173,6 @@
     <t>488 S 500 E</t>
   </si>
   <si>
-    <t>Brian, Finn &amp; Ellyssa Taylor</t>
-  </si>
-  <si>
     <t>Brown, Ed &amp; Brenda</t>
   </si>
   <si>
@@ -272,7 +269,7 @@
     <t>Cotton, Joseph Timothy &amp; Rachel Jeanette</t>
   </si>
   <si>
-    <t>400 S 500 E</t>
+    <t>727 E 400 S</t>
   </si>
   <si>
     <t>Daley, Angela</t>
@@ -416,12 +413,6 @@
     <t>472 S 450 E</t>
   </si>
   <si>
-    <t>Gutiérrez, Aurelio &amp; Paula</t>
-  </si>
-  <si>
-    <t>650 E 500 S Apt 3</t>
-  </si>
-  <si>
     <t>Hackett, Royce &amp; Harly Jane</t>
   </si>
   <si>
@@ -482,18 +473,6 @@
     <t>478 S 450 E</t>
   </si>
   <si>
-    <t>Haug, Todd &amp; McKenna</t>
-  </si>
-  <si>
-    <t>467 S 400 E</t>
-  </si>
-  <si>
-    <t>Heeb, Jordan &amp; Madeline Rae</t>
-  </si>
-  <si>
-    <t>436 S 500 E</t>
-  </si>
-  <si>
     <t>Hernandez, Emiliano &amp; Audrey Brooke</t>
   </si>
   <si>
@@ -509,6 +488,9 @@
     <t>Hilton, Joseph &amp; Sara Lynn</t>
   </si>
   <si>
+    <t>445 S 500 E</t>
+  </si>
+  <si>
     <t>Hoover, Kyle Richard &amp; Madison Mallory</t>
   </si>
   <si>
@@ -539,6 +521,12 @@
     <t>655 E 600 S Apt 2</t>
   </si>
   <si>
+    <t>Huskinson, Stefen &amp; Jazmín</t>
+  </si>
+  <si>
+    <t>474 S 450 E</t>
+  </si>
+  <si>
     <t>Igwe, Invictus &amp; Kari Johanna</t>
   </si>
   <si>
@@ -551,12 +539,6 @@
     <t>572 E 300 S</t>
   </si>
   <si>
-    <t>Jackson, Jake &amp; Mary Elizabeth</t>
-  </si>
-  <si>
-    <t>689 E 400 S</t>
-  </si>
-  <si>
     <t>Jensen, Evan &amp; Kristen</t>
   </si>
   <si>
@@ -764,6 +746,12 @@
     <t>464 S 600 E</t>
   </si>
   <si>
+    <t>Perez Medina, Aaron &amp; Amanda Marie</t>
+  </si>
+  <si>
+    <t>576 E 400 S Apt 2</t>
+  </si>
+  <si>
     <t>Perez Medina, Jesus &amp; Ma Guadalupe de</t>
   </si>
   <si>
@@ -782,163 +770,145 @@
     <t>346 S 600 E</t>
   </si>
   <si>
-    <t>Purser, Clinton &amp; Olivia Page</t>
+    <t>Rasmussen, Tad &amp; Martha</t>
+  </si>
+  <si>
+    <t>701 E 500 S</t>
+  </si>
+  <si>
+    <t>Rathbun, Nathan</t>
+  </si>
+  <si>
+    <t>647 E 500 S</t>
+  </si>
+  <si>
+    <t>Reed, Stephen &amp; Annelise Woodward</t>
+  </si>
+  <si>
+    <t>369 S 500 E</t>
+  </si>
+  <si>
+    <t>Richards, Lavon</t>
+  </si>
+  <si>
+    <t>571 E 500 S</t>
+  </si>
+  <si>
+    <t>Richardson, Nick Steven &amp; Stacy Gene</t>
+  </si>
+  <si>
+    <t>675 E 600 S Apt 1</t>
+  </si>
+  <si>
+    <t>Richey, Nathan &amp; Sarah Marie</t>
+  </si>
+  <si>
+    <t>Rodriguez, Jazmin</t>
+  </si>
+  <si>
+    <t>655 E 600 S Apt 3</t>
+  </si>
+  <si>
+    <t>Rood, Jenny</t>
+  </si>
+  <si>
+    <t>Roth, Jasmine &amp; Kade</t>
+  </si>
+  <si>
+    <t>467 S 500 E</t>
+  </si>
+  <si>
+    <t>Rushton, Eric &amp; Brianne</t>
+  </si>
+  <si>
+    <t>414 E 500 S</t>
+  </si>
+  <si>
+    <t>Sanabria, Lucy</t>
+  </si>
+  <si>
+    <t>322 S 600 E</t>
+  </si>
+  <si>
+    <t>Schenck, Trent</t>
+  </si>
+  <si>
+    <t>Scofield, Jeffrey David &amp; Marí Angeles</t>
+  </si>
+  <si>
+    <t>333 S 400 E</t>
+  </si>
+  <si>
+    <t>Sevy, Albert Cameron &amp; Sharon Myler</t>
+  </si>
+  <si>
+    <t>Shannon, Avram Richard &amp; Thora Florence</t>
+  </si>
+  <si>
+    <t>391 S 400 E</t>
+  </si>
+  <si>
+    <t>Sharkey, Becky</t>
+  </si>
+  <si>
+    <t>389 S 500 E</t>
+  </si>
+  <si>
+    <t>Shiffler-Olsen, Bonnie Ruth</t>
+  </si>
+  <si>
+    <t>695 E 600 S Apt 1</t>
+  </si>
+  <si>
+    <t>Smith, Spencer &amp; Emma Lee</t>
+  </si>
+  <si>
+    <t>408 E 500 S</t>
+  </si>
+  <si>
+    <t>Stewart, Misti Fawn</t>
+  </si>
+  <si>
+    <t>Stillwell, Kenneth Holliway &amp; Jami Nicole</t>
+  </si>
+  <si>
+    <t>475 E 400 S</t>
+  </si>
+  <si>
+    <t>Storrs, Colton &amp; Kyla Amber</t>
+  </si>
+  <si>
+    <t>354 S 500 E</t>
+  </si>
+  <si>
+    <t>Voyles, Jacob &amp; Rachel Myrna</t>
+  </si>
+  <si>
+    <t>434 E 500 S</t>
+  </si>
+  <si>
+    <t>Wall, Cody Lane</t>
+  </si>
+  <si>
+    <t>562 East 400 South</t>
+  </si>
+  <si>
+    <t>Ward, Jordan &amp; Shelby</t>
+  </si>
+  <si>
+    <t>484 S 450 E</t>
+  </si>
+  <si>
+    <t>Washburn, Joseph Mc Kay</t>
+  </si>
+  <si>
+    <t>448 E 500 S</t>
+  </si>
+  <si>
+    <t>Wheeler, Joshua</t>
   </si>
   <si>
     <t>744 E 500 S</t>
-  </si>
-  <si>
-    <t>Rasmussen, Tad &amp; Martha</t>
-  </si>
-  <si>
-    <t>701 E 500 S</t>
-  </si>
-  <si>
-    <t>Rathbun, Nathan</t>
-  </si>
-  <si>
-    <t>647 E 500 S</t>
-  </si>
-  <si>
-    <t>Reed, Stephen &amp; Annelise Woodward</t>
-  </si>
-  <si>
-    <t>369 S 500 E</t>
-  </si>
-  <si>
-    <t>Richards, Lavon</t>
-  </si>
-  <si>
-    <t>571 E 500 S</t>
-  </si>
-  <si>
-    <t>Richardson, Nick Steven &amp; Stacy Gene</t>
-  </si>
-  <si>
-    <t>675 E 600 S Apt 1</t>
-  </si>
-  <si>
-    <t>Richey, Nathan &amp; Sarah Marie</t>
-  </si>
-  <si>
-    <t>Rodriguez, Jazmin</t>
-  </si>
-  <si>
-    <t>655 E 600 S Apt 3</t>
-  </si>
-  <si>
-    <t>Rood, Jenny</t>
-  </si>
-  <si>
-    <t>727 E 400 S</t>
-  </si>
-  <si>
-    <t>Roth, Jasmine &amp; Kade</t>
-  </si>
-  <si>
-    <t>467 S 500 E</t>
-  </si>
-  <si>
-    <t>Rushton, Eric &amp; Brianne</t>
-  </si>
-  <si>
-    <t>414 E 500 S</t>
-  </si>
-  <si>
-    <t>Sanabria, Lucy</t>
-  </si>
-  <si>
-    <t>322 S 600 E</t>
-  </si>
-  <si>
-    <t>Schenck, Trent</t>
-  </si>
-  <si>
-    <t>Scofield, Jeffrey David &amp; Marí Angeles</t>
-  </si>
-  <si>
-    <t>333 S 400 E</t>
-  </si>
-  <si>
-    <t>Sevy, Albert Cameron &amp; Sharon Myler</t>
-  </si>
-  <si>
-    <t>Shannon, Avram Richard &amp; Thora Florence</t>
-  </si>
-  <si>
-    <t>391 S 400 E</t>
-  </si>
-  <si>
-    <t>Sharkey, Becky</t>
-  </si>
-  <si>
-    <t>389 S 500 E</t>
-  </si>
-  <si>
-    <t>Shiffler-Olsen, Bonnie Ruth</t>
-  </si>
-  <si>
-    <t>695 E 600 S Apt 1</t>
-  </si>
-  <si>
-    <t>Smith, Spencer &amp; Emma Lee</t>
-  </si>
-  <si>
-    <t>408 E 500 S</t>
-  </si>
-  <si>
-    <t>Stallings, Jonathan &amp; Natalie</t>
-  </si>
-  <si>
-    <t>422 E 300 S</t>
-  </si>
-  <si>
-    <t>Stewart, Misti Fawn</t>
-  </si>
-  <si>
-    <t>Stillwell, Kenneth Holliway &amp; Jami Nicole</t>
-  </si>
-  <si>
-    <t>475 E 400 S</t>
-  </si>
-  <si>
-    <t>Storrs, Colton &amp; Kyla Amber</t>
-  </si>
-  <si>
-    <t>354 S 500 E</t>
-  </si>
-  <si>
-    <t>Van Katwyk, Nathan Kirk &amp; Emily Ann</t>
-  </si>
-  <si>
-    <t>Voyles, Jacob &amp; Rachel Myrna</t>
-  </si>
-  <si>
-    <t>434 E 500 S</t>
-  </si>
-  <si>
-    <t>Walker, Steven &amp; Alyssa Jane</t>
-  </si>
-  <si>
-    <t>647 E 400 S Unit A</t>
-  </si>
-  <si>
-    <t>Wall, Cody Lane</t>
-  </si>
-  <si>
-    <t>562 East 400 South</t>
-  </si>
-  <si>
-    <t>Ward, Jordan &amp; Shelby</t>
-  </si>
-  <si>
-    <t>484 S 450 E</t>
-  </si>
-  <si>
-    <t>Washburn, Joseph Mc Kay</t>
-  </si>
-  <si>
-    <t>448 E 500 S</t>
   </si>
   <si>
     <t>Whitney, Keaton &amp; Sadie Rose</t>
@@ -1826,7 +1796,7 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -1845,10 +1815,10 @@
     <row r="24">
       <c r="A24" t="s"/>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1867,10 +1837,10 @@
     <row r="25">
       <c r="A25" t="s"/>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1889,10 +1859,10 @@
     <row r="26">
       <c r="A26" t="s"/>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -1911,10 +1881,10 @@
     <row r="27">
       <c r="A27" t="s"/>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -1933,10 +1903,10 @@
     <row r="28">
       <c r="A28" t="s"/>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1955,10 +1925,10 @@
     <row r="29">
       <c r="A29" t="s"/>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -1977,10 +1947,10 @@
     <row r="30">
       <c r="A30" t="s"/>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -1999,10 +1969,10 @@
     <row r="31">
       <c r="A31" t="s"/>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -2021,10 +1991,10 @@
     <row r="32">
       <c r="A32" t="s"/>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -2043,10 +2013,10 @@
     <row r="33">
       <c r="A33" t="s"/>
       <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
         <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -2068,7 +2038,7 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -2087,10 +2057,10 @@
     <row r="35">
       <c r="A35" t="s"/>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -2109,10 +2079,10 @@
     <row r="36">
       <c r="A36" t="s"/>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -2131,10 +2101,10 @@
     <row r="37">
       <c r="A37" t="s"/>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -2153,10 +2123,10 @@
     <row r="38">
       <c r="A38" t="s"/>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -2175,10 +2145,10 @@
     <row r="39">
       <c r="A39" t="s"/>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -2197,10 +2167,10 @@
     <row r="40">
       <c r="A40" t="s"/>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -2219,10 +2189,10 @@
     <row r="41">
       <c r="A41" t="s"/>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -2241,10 +2211,10 @@
     <row r="42">
       <c r="A42" t="s"/>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -2263,10 +2233,10 @@
     <row r="43">
       <c r="A43" t="s"/>
       <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
         <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -2288,7 +2258,7 @@
         <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -2307,10 +2277,10 @@
     <row r="45">
       <c r="A45" t="s"/>
       <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2332,7 +2302,7 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -2351,10 +2321,10 @@
     <row r="47">
       <c r="A47" t="s"/>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -2373,10 +2343,10 @@
     <row r="48">
       <c r="A48" t="s"/>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -2395,10 +2365,10 @@
     <row r="49">
       <c r="A49" t="s"/>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -2417,10 +2387,10 @@
     <row r="50">
       <c r="A50" t="s"/>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -2439,10 +2409,10 @@
     <row r="51">
       <c r="A51" t="s"/>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -2461,10 +2431,10 @@
     <row r="52">
       <c r="A52" t="s"/>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -2483,10 +2453,10 @@
     <row r="53">
       <c r="A53" t="s"/>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -2505,10 +2475,10 @@
     <row r="54">
       <c r="A54" t="s"/>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -2527,10 +2497,10 @@
     <row r="55">
       <c r="A55" t="s"/>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -2549,10 +2519,10 @@
     <row r="56">
       <c r="A56" t="s"/>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -2571,10 +2541,10 @@
     <row r="57">
       <c r="A57" t="s"/>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -2593,10 +2563,10 @@
     <row r="58">
       <c r="A58" t="s"/>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2615,10 +2585,10 @@
     <row r="59">
       <c r="A59" t="s"/>
       <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
         <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>121</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -2640,7 +2610,7 @@
         <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -2659,10 +2629,10 @@
     <row r="61">
       <c r="A61" t="s"/>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -2681,10 +2651,10 @@
     <row r="62">
       <c r="A62" t="s"/>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -2703,10 +2673,10 @@
     <row r="63">
       <c r="A63" t="s"/>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -2725,10 +2695,10 @@
     <row r="64">
       <c r="A64" t="s"/>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
@@ -2747,10 +2717,10 @@
     <row r="65">
       <c r="A65" t="s"/>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -2769,10 +2739,10 @@
     <row r="66">
       <c r="A66" t="s"/>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -2791,10 +2761,10 @@
     <row r="67">
       <c r="A67" t="s"/>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -2813,10 +2783,10 @@
     <row r="68">
       <c r="A68" t="s"/>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -2835,10 +2805,10 @@
     <row r="69">
       <c r="A69" t="s"/>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -2857,10 +2827,10 @@
     <row r="70">
       <c r="A70" t="s"/>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -2879,10 +2849,10 @@
     <row r="71">
       <c r="A71" t="s"/>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -2901,10 +2871,10 @@
     <row r="72">
       <c r="A72" t="s"/>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
@@ -2923,10 +2893,10 @@
     <row r="73">
       <c r="A73" t="s"/>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -2945,10 +2915,10 @@
     <row r="74">
       <c r="A74" t="s"/>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -2967,10 +2937,10 @@
     <row r="75">
       <c r="A75" t="s"/>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -2989,10 +2959,10 @@
     <row r="76">
       <c r="A76" t="s"/>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -3011,10 +2981,10 @@
     <row r="77">
       <c r="A77" t="s"/>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -3033,10 +3003,10 @@
     <row r="78">
       <c r="A78" t="s"/>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
@@ -3055,10 +3025,10 @@
     <row r="79">
       <c r="A79" t="s"/>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -3077,10 +3047,10 @@
     <row r="80">
       <c r="A80" t="s"/>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -3099,10 +3069,10 @@
     <row r="81">
       <c r="A81" t="s"/>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -3121,10 +3091,10 @@
     <row r="82">
       <c r="A82" t="s"/>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -3143,10 +3113,10 @@
     <row r="83">
       <c r="A83" t="s"/>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -3165,10 +3135,10 @@
     <row r="84">
       <c r="A84" t="s"/>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -3187,10 +3157,10 @@
     <row r="85">
       <c r="A85" t="s"/>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -3209,10 +3179,10 @@
     <row r="86">
       <c r="A86" t="s"/>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -3231,10 +3201,10 @@
     <row r="87">
       <c r="A87" t="s"/>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -3253,10 +3223,10 @@
     <row r="88">
       <c r="A88" t="s"/>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -3275,10 +3245,10 @@
     <row r="89">
       <c r="A89" t="s"/>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -3297,10 +3267,10 @@
     <row r="90">
       <c r="A90" t="s"/>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -3319,10 +3289,10 @@
     <row r="91">
       <c r="A91" t="s"/>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -3366,7 +3336,7 @@
         <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -3385,10 +3355,10 @@
     <row r="94">
       <c r="A94" t="s"/>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -3407,13 +3377,13 @@
     <row r="95">
       <c r="A95" t="s"/>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -3429,10 +3399,10 @@
     <row r="96">
       <c r="A96" t="s"/>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -3451,10 +3421,10 @@
     <row r="97">
       <c r="A97" t="s"/>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -3473,10 +3443,10 @@
     <row r="98">
       <c r="A98" t="s"/>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -3495,13 +3465,13 @@
     <row r="99">
       <c r="A99" t="s"/>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D99" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3517,10 +3487,10 @@
     <row r="100">
       <c r="A100" t="s"/>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -3539,10 +3509,10 @@
     <row r="101">
       <c r="A101" t="s"/>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -3561,10 +3531,10 @@
     <row r="102">
       <c r="A102" t="s"/>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
@@ -3583,10 +3553,10 @@
     <row r="103">
       <c r="A103" t="s"/>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
@@ -3605,10 +3575,10 @@
     <row r="104">
       <c r="A104" t="s"/>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -3627,10 +3597,10 @@
     <row r="105">
       <c r="A105" t="s"/>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -3649,10 +3619,10 @@
     <row r="106">
       <c r="A106" t="s"/>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -3671,10 +3641,10 @@
     <row r="107">
       <c r="A107" t="s"/>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -3693,10 +3663,10 @@
     <row r="108">
       <c r="A108" t="s"/>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -3715,10 +3685,10 @@
     <row r="109">
       <c r="A109" t="s"/>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
@@ -3737,10 +3707,10 @@
     <row r="110">
       <c r="A110" t="s"/>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -3759,10 +3729,10 @@
     <row r="111">
       <c r="A111" t="s"/>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
@@ -3781,10 +3751,10 @@
     <row r="112">
       <c r="A112" t="s"/>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
@@ -3803,10 +3773,10 @@
     <row r="113">
       <c r="A113" t="s"/>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -3825,10 +3795,10 @@
     <row r="114">
       <c r="A114" t="s"/>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
@@ -3847,10 +3817,10 @@
     <row r="115">
       <c r="A115" t="s"/>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
@@ -3869,10 +3839,10 @@
     <row r="116">
       <c r="A116" t="s"/>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D116" t="s">
         <v>10</v>
@@ -3891,10 +3861,10 @@
     <row r="117">
       <c r="A117" t="s"/>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
@@ -3913,10 +3883,10 @@
     <row r="118">
       <c r="A118" t="s"/>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D118" t="s">
         <v>10</v>
@@ -3935,10 +3905,10 @@
     <row r="119">
       <c r="A119" t="s"/>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
@@ -3957,10 +3927,10 @@
     <row r="120">
       <c r="A120" t="s"/>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
@@ -3979,10 +3949,10 @@
     <row r="121">
       <c r="A121" t="s"/>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
@@ -4001,10 +3971,10 @@
     <row r="122">
       <c r="A122" t="s"/>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
@@ -4023,10 +3993,10 @@
     <row r="123">
       <c r="A123" t="s"/>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -4045,10 +4015,10 @@
     <row r="124">
       <c r="A124" t="s"/>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
@@ -4067,10 +4037,10 @@
     <row r="125">
       <c r="A125" t="s"/>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
@@ -4089,10 +4059,10 @@
     <row r="126">
       <c r="A126" t="s"/>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -4111,10 +4081,10 @@
     <row r="127">
       <c r="A127" t="s"/>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
@@ -4133,10 +4103,10 @@
     <row r="128">
       <c r="A128" t="s"/>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
@@ -4155,10 +4125,10 @@
     <row r="129">
       <c r="A129" t="s"/>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
@@ -4177,10 +4147,10 @@
     <row r="130">
       <c r="A130" t="s"/>
       <c r="B130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
@@ -4199,10 +4169,10 @@
     <row r="131">
       <c r="A131" t="s"/>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
@@ -4221,10 +4191,10 @@
     <row r="132">
       <c r="A132" t="s"/>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
@@ -4268,7 +4238,7 @@
         <v>267</v>
       </c>
       <c r="C134" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
@@ -4287,10 +4257,10 @@
     <row r="135">
       <c r="A135" t="s"/>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
@@ -4309,10 +4279,10 @@
     <row r="136">
       <c r="A136" t="s"/>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C136" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
@@ -4356,7 +4326,7 @@
         <v>274</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -4375,10 +4345,10 @@
     <row r="139">
       <c r="A139" t="s"/>
       <c r="B139" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" t="s">
         <v>276</v>
-      </c>
-      <c r="C139" t="s">
-        <v>277</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -4397,10 +4367,10 @@
     <row r="140">
       <c r="A140" t="s"/>
       <c r="B140" t="s">
+        <v>277</v>
+      </c>
+      <c r="C140" t="s">
         <v>278</v>
-      </c>
-      <c r="C140" t="s">
-        <v>244</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -4444,7 +4414,7 @@
         <v>281</v>
       </c>
       <c r="C142" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -4463,10 +4433,10 @@
     <row r="143">
       <c r="A143" t="s"/>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C143" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
@@ -4576,7 +4546,7 @@
         <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -4595,10 +4565,10 @@
     <row r="149">
       <c r="A149" t="s"/>
       <c r="B149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
@@ -4617,10 +4587,10 @@
     <row r="150">
       <c r="A150" t="s"/>
       <c r="B150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -4639,10 +4609,10 @@
     <row r="151">
       <c r="A151" t="s"/>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -4661,10 +4631,10 @@
     <row r="152">
       <c r="A152" t="s"/>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C152" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -4683,10 +4653,10 @@
     <row r="153">
       <c r="A153" t="s"/>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -4705,10 +4675,10 @@
     <row r="154">
       <c r="A154" t="s"/>
       <c r="B154" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C154" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -4727,10 +4697,10 @@
     <row r="155">
       <c r="A155" t="s"/>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -4749,10 +4719,10 @@
     <row r="156">
       <c r="A156" t="s"/>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
@@ -4771,10 +4741,10 @@
     <row r="157">
       <c r="A157" t="s"/>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C157" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -4793,10 +4763,10 @@
     <row r="158">
       <c r="A158" t="s"/>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C158" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -4815,10 +4785,10 @@
     <row r="159">
       <c r="A159" t="s"/>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C159" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -4833,138 +4803,6 @@
         <v>12</v>
       </c>
       <c r="H159" t="s"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="s"/>
-      <c r="B160" t="s">
-        <v>314</v>
-      </c>
-      <c r="C160" t="s">
-        <v>315</v>
-      </c>
-      <c r="D160" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" t="n">
-        <v>84606</v>
-      </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160" t="s"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="s"/>
-      <c r="B161" t="s">
-        <v>316</v>
-      </c>
-      <c r="C161" t="s">
-        <v>99</v>
-      </c>
-      <c r="D161" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" t="n">
-        <v>84606</v>
-      </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161" t="s"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="s"/>
-      <c r="B162" t="s">
-        <v>317</v>
-      </c>
-      <c r="C162" t="s">
-        <v>318</v>
-      </c>
-      <c r="D162" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" t="n">
-        <v>84606</v>
-      </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
-      <c r="H162" t="s"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="s"/>
-      <c r="B163" t="s">
-        <v>319</v>
-      </c>
-      <c r="C163" t="s">
-        <v>320</v>
-      </c>
-      <c r="D163" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" t="n">
-        <v>84606</v>
-      </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
-      <c r="H163" t="s"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="s"/>
-      <c r="B164" t="s">
-        <v>321</v>
-      </c>
-      <c r="C164" t="s">
-        <v>322</v>
-      </c>
-      <c r="D164" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" t="n">
-        <v>84606</v>
-      </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
-      <c r="H164" t="s"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="s"/>
-      <c r="B165" t="s">
-        <v>323</v>
-      </c>
-      <c r="C165" t="s">
-        <v>324</v>
-      </c>
-      <c r="D165" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" t="n">
-        <v>84606</v>
-      </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
-      <c r="H165" t="s"/>
     </row>
   </sheetData>
 </worksheet>
